--- a/Data/Transitions/19101915Translation.xlsx
+++ b/Data/Transitions/19101915Translation.xlsx
@@ -337,10 +337,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.03254877942077172}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9674512205792283}</t>
+    <t>{179.0: 1.0, 180.0: 0.02915132042943343}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9708486795705665}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -367,7 +367,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -457,6 +457,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -538,7 +541,7 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
+    <t>{276.0: 0.6650608980185421}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -655,9 +658,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 1.0, 837.0: 0.01338007096139871}</t>
+    <t>{486.0: 1.0, 837.0: 0.013730780197846066}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -1000,7 +1000,7 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1024,7 +1024,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1372,7 +1372,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9440644637284658}</t>
+    <t>{837.0: 0.9425983198438288}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1573,7 +1573,7 @@
     <t>{910.0: 0.1834781652183478}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1636,7 +1636,7 @@
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.9123261843035588, 180.0: 0.0876738156964412}</t>
+    <t>{179.0: 0.9123261843035589, 180.0: 0.0876738156964412}</t>
   </si>
   <si>
     <t>{180.0: 1.0}</t>
@@ -1663,13 +1663,13 @@
     <t>{486.0: 0.881371991661929, 837.0: 0.11862800833807087}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587968, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8182233178124715, 837.0: 0.18177668218752857}</t>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.181693739733528}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -1681,7 +1681,7 @@
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.920008771078718, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266302, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{837.0: 1.0}</t>
@@ -1699,7 +1699,7 @@
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.2880122558406741}</t>
   </si>
 </sst>
 </file>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3779,40 +3779,40 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>543</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3889,29 +3889,29 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>544</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3966,29 +3966,29 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>545</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4307,29 +4307,29 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>546</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>206</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
